--- a/biology/Histoire de la zoologie et de la botanique/Jean-Augustin_Barral/Jean-Augustin_Barral.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Augustin_Barral/Jean-Augustin_Barral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Augustin Barral, né le 31 janvier 1819 à Metz (Moselle) et mort à Fontenay-sous-Bois (Val-de-Marne) le 10 septembre 1884, est un chimiste, physicien et agronome français. On lui doit notamment l'analyse de la composition de la nicotine, alors qu'il est employé à l'administration des tabacs.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancien élève de l'École polytechnique (X1838), il devient professeur de chimie. Il est l’auteur de très nombreux ouvrages de vulgarisation, notamment concernant l’agriculture et l’irrigation, et devient directeur de publication d’ouvrages scientifiques.
-Il a été rédacteur de La Démocratie pacifique, journal de Victor Considerant, cofondateur en 1837 avec Jacques Alexandre Bixio du Journal d’agriculture pratique, qu’il dirige à partir dès 1850, auteur de nombreuses notices scientifiques dans la Revue des Deux Mondes, dans le Dictionnaire des arts et manufactures et dans les Annales de chimie et de physique. Il poursuit son activité journalistique en fondant en 1865 La Presse scientifique des deux mondes, organe du Cercle de la Presse scientifique. En 1866, à la suite de son éviction de la direction du Journal d'agriculture pratique, il fonde le Journal de l'agriculture[1].
-Il participe en 1848 à la révolution aux côtés d'Arago. Il est toutefois compromis lors de l’insurrection du 13 juin 1849 dirigée contre l’intervention des troupes françaises contre la république romaine, et dont les instigateurs avaient été Considerant et Ledru-Rollin, c’est peut-être à Bixio que Barral avait dû de ne pas être inquiété après son arrestation le 25 juin. En juillet 1850, Barral et Bixio ont fait ensemble près de Coulommiers une ascension en ballon pour déterminer la température et la composition de l’air, exploit qui a eu un énorme retentissement[2].
-À partir de 1849, pendant quatre ans, Barral rassemble les textes de François Arago sous sa direction, pour en publier les œuvres complètes, puis en 1854, publie de façon posthume la célèbre Astronomie populaire, ouvrage complet et modèle pour de nombreux vulgarisateurs[3].
+Il a été rédacteur de La Démocratie pacifique, journal de Victor Considerant, cofondateur en 1837 avec Jacques Alexandre Bixio du Journal d’agriculture pratique, qu’il dirige à partir dès 1850, auteur de nombreuses notices scientifiques dans la Revue des Deux Mondes, dans le Dictionnaire des arts et manufactures et dans les Annales de chimie et de physique. Il poursuit son activité journalistique en fondant en 1865 La Presse scientifique des deux mondes, organe du Cercle de la Presse scientifique. En 1866, à la suite de son éviction de la direction du Journal d'agriculture pratique, il fonde le Journal de l'agriculture.
+Il participe en 1848 à la révolution aux côtés d'Arago. Il est toutefois compromis lors de l’insurrection du 13 juin 1849 dirigée contre l’intervention des troupes françaises contre la république romaine, et dont les instigateurs avaient été Considerant et Ledru-Rollin, c’est peut-être à Bixio que Barral avait dû de ne pas être inquiété après son arrestation le 25 juin. En juillet 1850, Barral et Bixio ont fait ensemble près de Coulommiers une ascension en ballon pour déterminer la température et la composition de l’air, exploit qui a eu un énorme retentissement.
+À partir de 1849, pendant quatre ans, Barral rassemble les textes de François Arago sous sa direction, pour en publier les œuvres complètes, puis en 1854, publie de façon posthume la célèbre Astronomie populaire, ouvrage complet et modèle pour de nombreux vulgarisateurs.
 Il fut nommé secrétaire perpétuel de la Société nationale d’agriculture de France.
-Il est le père de Georges Barral[4].
+Il est le père de Georges Barral.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses travaux lui valent d’être nommé sur les côtés de la tour Eiffel.
 </t>
@@ -578,9 +594,11 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Statique chimique des animaux, appliquée spécialement à la question de l’emploi agricole du sel, Paris, Librairie agricole de la Maison rustique, 1850, XI-532 p. Texte en ligne[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Statique chimique des animaux, appliquée spécialement à la question de l’emploi agricole du sel, Paris, Librairie agricole de la Maison rustique, 1850, XI-532 p. Texte en ligne
 Manuel du drainage des terres arables, 1854
 Drainage, irrigations, engrais liquides, 4 volumes, 1856-1860
 Le Bon Fermier, aide-mémoire du cultivateur, 1861
